--- a/sample_projects_intracellular/boolean/prostate/llista.xlsx
+++ b/sample_projects_intracellular/boolean/prostate/llista.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PhysiBoSS\sample_projects_intracellular\boolean\prostate_v2nova\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PhysiBoSS\sample_projects_intracellular\boolean\prostate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{16C49979-11AC-41E3-ACD4-AECDC79D8227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5BB2DD-35F2-454A-BA21-A5037BA96539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2983" yWindow="2983" windowWidth="24686" windowHeight="13054"/>
+    <workbookView xWindow="2325" yWindow="1185" windowWidth="21600" windowHeight="11453" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="llista" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>.:</t>
   </si>
@@ -187,7 +192,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1035,19 +1040,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1055,7 +1060,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1066,17 +1071,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1087,12 +1092,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1100,67 +1105,67 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
@@ -1168,7 +1173,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -1176,7 +1181,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -1184,7 +1189,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -1192,7 +1197,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -1200,7 +1205,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -1208,7 +1213,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
@@ -1216,7 +1221,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
@@ -1224,7 +1229,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
@@ -1232,7 +1237,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
@@ -1240,7 +1245,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
@@ -1248,7 +1253,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
@@ -1256,7 +1261,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
@@ -1264,7 +1269,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>31</v>
       </c>
@@ -1272,7 +1277,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>32</v>
       </c>
@@ -1280,7 +1285,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>33</v>
       </c>
@@ -1288,7 +1293,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>34</v>
       </c>
@@ -1296,7 +1301,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>35</v>
       </c>
@@ -1304,7 +1309,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>36</v>
       </c>
@@ -1312,7 +1317,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>37</v>
       </c>
@@ -1320,7 +1325,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -1328,17 +1333,23 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>41</v>
       </c>
@@ -1346,7 +1357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>42</v>
       </c>
@@ -1357,14 +1368,20 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/sample_projects_intracellular/boolean/prostate/llista.xlsx
+++ b/sample_projects_intracellular/boolean/prostate/llista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PhysiBoSS\sample_projects_intracellular\boolean\prostate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5BB2DD-35F2-454A-BA21-A5037BA96539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B5A345-B350-4AC3-B350-492ACD20DD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2325" yWindow="1185" windowWidth="21600" windowHeight="11453" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>.:</t>
   </si>
@@ -187,6 +187,18 @@
   </si>
   <si>
     <t>cal maboss_network.h, drug_sensitivity.h, boolean_model_interface.h ?</t>
+  </si>
+  <si>
+    <t>transition_rates o phase_durations?</t>
+  </si>
+  <si>
+    <t>Intentant correr-ho:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>setup_microenvironment: si està comentat no li fica droga al medi</t>
   </si>
 </sst>
 </file>
@@ -1041,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1124,6 +1136,9 @@
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
@@ -1384,7 +1399,21 @@
         <v>2</v>
       </c>
     </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>